--- a/excelTemplate/MBL_UPLOAD.xlsx
+++ b/excelTemplate/MBL_UPLOAD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>S/N</t>
   </si>
@@ -224,6 +224,33 @@
   </si>
   <si>
     <t>&lt;%=rs1.P%&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import_billlading_cso_no1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -344,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,6 +418,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,9 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -713,7 +745,7 @@
     <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -797,6 +829,9 @@
       </c>
       <c r="AB1" s="13" t="s">
         <v>47</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/MBL_UPLOAD.xlsx
+++ b/excelTemplate/MBL_UPLOAD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B777A5-B99E-2343-8F13-C7B611C7172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>S/N</t>
   </si>
@@ -223,9 +224,6 @@
     <t>&lt;%=rs1.GRMARK%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.P%&gt;</t>
-  </si>
-  <si>
     <r>
       <t>&lt;%=rs1.</t>
     </r>
@@ -245,6 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,12 +251,24 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;%=rs1.P%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.tin0%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.tin1%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,32 +382,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,21 +419,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,9 +441,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -482,9 +481,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +518,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -727,111 +726,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="13" customWidth="1"/>
-    <col min="2" max="3" width="9" style="13"/>
-    <col min="4" max="4" width="15.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="16" t="s">
-        <v>48</v>
+      <c r="AD1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -842,21 +843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,52 +879,52 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -935,12 +936,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
